--- a/Data Processing/raw_data/results_ethiopia_5March25_JREdit.xlsx
+++ b/Data Processing/raw_data/results_ethiopia_5March25_JREdit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\First Analytics\Clients\University of Liverpool\2023-11 Antimicrobial Usage Revisit\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C57CDD1-C2C7-49F8-B8EC-E8A211ADEE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C4FE87-A8FD-4220-9EAC-85596484ED32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{2BC8D24C-2CA6-4463-8862-4EEE17848D2D}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
   <si>
     <t>Median</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>AHLE - cattle (USD)</t>
+  </si>
+  <si>
+    <t>Total AMR burden (USD)</t>
+  </si>
+  <si>
+    <t>AHLE without AMR (USD)</t>
   </si>
 </sst>
 </file>
@@ -250,8 +256,8 @@
     <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="_-[$$-409]* #,##0.0000_ ;_-[$$-409]* \-#,##0.0000\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="171" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -314,7 +320,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -328,34 +334,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <u val="double"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <u val="double"/>
-      </font>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b val="0"/>
@@ -714,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ECB4820-8E04-43B7-869B-16CDF98A613C}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,7 +737,7 @@
       <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16"/>
+      <c r="F1" s="14"/>
       <c r="I1" t="s">
         <v>9</v>
       </c>
@@ -829,19 +819,19 @@
       <c r="A4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="15">
         <f>B2*1000000000</f>
         <v>3792692048.4765329</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="15">
         <f>C2*1000000000</f>
         <v>3824134928.606586</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="15">
         <f t="shared" ref="D4:E4" si="0">D2*1000000000</f>
         <v>2953427901.351203</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="15">
         <f t="shared" si="0"/>
         <v>4851531989.2296448</v>
       </c>
@@ -873,19 +863,19 @@
       <c r="A5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="15">
         <f>B3*1000000000</f>
         <v>690864091.86290812</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="15">
         <f t="shared" ref="C5:E5" si="1">C3*1000000000</f>
         <v>685208346.22170353</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="15">
         <f t="shared" si="1"/>
         <v>522339460.50667757</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="15">
         <f t="shared" si="1"/>
         <v>825158203.47641206</v>
       </c>
@@ -997,22 +987,22 @@
       <c r="E9" s="2">
         <v>18.57</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="7">
         <f>C3+I6+I7</f>
         <v>0.68562472503373373</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="13">
         <f>I9/I2</f>
         <v>4.4463341441876379E-2</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="13">
         <f>(D3+I6+I7)/I2</f>
         <v>3.3901156894857828E-2</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="13">
         <f>(E3+I6+I7)/I2</f>
         <v>5.3539207671105198E-2</v>
       </c>
@@ -1037,11 +1027,10 @@
         <f t="shared" si="2"/>
         <v>18570000000</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1066,15 +1055,54 @@
         <v>0.27955531914893617</v>
       </c>
     </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="15">
+        <f>B5+B7+B8</f>
+        <v>691276153.24205697</v>
+      </c>
+      <c r="C12" s="15">
+        <f>C5+C7+C8</f>
+        <v>685624725.03373373</v>
+      </c>
+      <c r="D12" s="15">
+        <f>D5+D7+D8</f>
+        <v>522685361.70582652</v>
+      </c>
+      <c r="E12" s="15">
+        <f t="shared" ref="D12:E12" si="3">E5+E7+E8</f>
+        <v>825657127.66556096</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15">
+        <f>C10-C12</f>
+        <v>14734375274.966267</v>
+      </c>
+      <c r="D13" s="15">
+        <f>D10-C12</f>
+        <v>12014375274.966267</v>
+      </c>
+      <c r="E13" s="15">
+        <f>E10-C12</f>
+        <v>17884375274.966267</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:M3 F4:M11 A6:E9 A11:E11 A10">
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>_xlfn.ISFORMULA(A1)</formula>
+  <conditionalFormatting sqref="A4:A5">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>_xlfn.ISFORMULA(A4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A5">
-    <cfRule type="expression" dxfId="4" priority="1">
-      <formula>_xlfn.ISFORMULA(A4)</formula>
+  <conditionalFormatting sqref="A1:M3 F4:M11 A6:E9 A10 A11:E11 A12:A13">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>_xlfn.ISFORMULA(A1)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1651,7 +1679,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:K19">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>_xlfn.ISFORMULA(A1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1753,7 +1781,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C7">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>_xlfn.ISFORMULA(A1)</formula>
     </cfRule>
   </conditionalFormatting>
